--- a/Code/Results/Cases/Case_4_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.039856011773733</v>
+        <v>1.081742303013206</v>
       </c>
       <c r="D2">
-        <v>1.049028562984466</v>
+        <v>1.076586557308225</v>
       </c>
       <c r="E2">
-        <v>1.055325403579454</v>
+        <v>1.095574217330284</v>
       </c>
       <c r="F2">
-        <v>1.057796745715021</v>
+        <v>1.102888618657688</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057867788316015</v>
+        <v>1.057874511200575</v>
       </c>
       <c r="J2">
-        <v>1.060906647853497</v>
+        <v>1.086615379532172</v>
       </c>
       <c r="K2">
-        <v>1.059844633034459</v>
+        <v>1.079270098372152</v>
       </c>
       <c r="L2">
-        <v>1.066064244000225</v>
+        <v>1.098208676608113</v>
       </c>
       <c r="M2">
-        <v>1.068505587630961</v>
+        <v>1.105504656545144</v>
       </c>
       <c r="N2">
-        <v>1.062413256981142</v>
+        <v>1.088158498007634</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.048335034523721</v>
+        <v>1.083361597210684</v>
       </c>
       <c r="D3">
-        <v>1.055773470017081</v>
+        <v>1.077872436652297</v>
       </c>
       <c r="E3">
-        <v>1.063668077002422</v>
+        <v>1.09722382004255</v>
       </c>
       <c r="F3">
-        <v>1.066740383972887</v>
+        <v>1.104680696191943</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061324836815169</v>
+        <v>1.058436170805519</v>
       </c>
       <c r="J3">
-        <v>1.06758948043741</v>
+        <v>1.087893416690349</v>
       </c>
       <c r="K3">
-        <v>1.06573919081389</v>
+        <v>1.080372365266487</v>
       </c>
       <c r="L3">
-        <v>1.073546313303278</v>
+        <v>1.099677380441298</v>
       </c>
       <c r="M3">
-        <v>1.076585004048351</v>
+        <v>1.107116854112412</v>
       </c>
       <c r="N3">
-        <v>1.069105579953856</v>
+        <v>1.089438350125169</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.05363885541064</v>
+        <v>1.084407060054298</v>
       </c>
       <c r="D4">
-        <v>1.059993818588437</v>
+        <v>1.07870226403431</v>
       </c>
       <c r="E4">
-        <v>1.068891969449437</v>
+        <v>1.098289236394857</v>
       </c>
       <c r="F4">
-        <v>1.072342783345792</v>
+        <v>1.105838510232278</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.06347378014119</v>
+        <v>1.058796994135388</v>
       </c>
       <c r="J4">
-        <v>1.071763337459289</v>
+        <v>1.088717647953479</v>
       </c>
       <c r="K4">
-        <v>1.06941832551041</v>
+        <v>1.081082828493557</v>
       </c>
       <c r="L4">
-        <v>1.078224384433694</v>
+        <v>1.100625253647451</v>
       </c>
       <c r="M4">
-        <v>1.081639984951549</v>
+        <v>1.108157808520277</v>
       </c>
       <c r="N4">
-        <v>1.073285364331454</v>
+        <v>1.090263751891233</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.055827586933761</v>
+        <v>1.084846026360484</v>
       </c>
       <c r="D5">
-        <v>1.061735628910169</v>
+        <v>1.079050599607273</v>
       </c>
       <c r="E5">
-        <v>1.071048952616424</v>
+        <v>1.098736672682675</v>
       </c>
       <c r="F5">
-        <v>1.074656608134727</v>
+        <v>1.106324841039538</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064357277671212</v>
+        <v>1.058948064319411</v>
       </c>
       <c r="J5">
-        <v>1.073484175633807</v>
+        <v>1.089063506825489</v>
       </c>
       <c r="K5">
-        <v>1.070934595950222</v>
+        <v>1.081380850141989</v>
       </c>
       <c r="L5">
-        <v>1.08015432747831</v>
+        <v>1.101023156819277</v>
       </c>
       <c r="M5">
-        <v>1.083726257925686</v>
+        <v>1.108594899235992</v>
       </c>
       <c r="N5">
-        <v>1.075008646293564</v>
+        <v>1.090610101922511</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.056192755376249</v>
+        <v>1.084919699026273</v>
       </c>
       <c r="D6">
-        <v>1.06202624154433</v>
+        <v>1.079109056201136</v>
       </c>
       <c r="E6">
-        <v>1.071408895458639</v>
+        <v>1.098811772267194</v>
       </c>
       <c r="F6">
-        <v>1.075042756880211</v>
+        <v>1.106406474176779</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064504484164462</v>
+        <v>1.058973393441871</v>
       </c>
       <c r="J6">
-        <v>1.07377118561831</v>
+        <v>1.089121540316782</v>
       </c>
       <c r="K6">
-        <v>1.071187451194152</v>
+        <v>1.081430850980446</v>
       </c>
       <c r="L6">
-        <v>1.08047628532884</v>
+        <v>1.10108993263436</v>
       </c>
       <c r="M6">
-        <v>1.084074344641087</v>
+        <v>1.108668258133202</v>
       </c>
       <c r="N6">
-        <v>1.075296063865164</v>
+        <v>1.090668217828018</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.053668259005405</v>
+        <v>1.084412927674502</v>
       </c>
       <c r="D7">
-        <v>1.060017217564641</v>
+        <v>1.078706920558256</v>
       </c>
       <c r="E7">
-        <v>1.068920941703142</v>
+        <v>1.098295216871448</v>
       </c>
       <c r="F7">
-        <v>1.072373860048677</v>
+        <v>1.105845010219442</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063485662305197</v>
+        <v>1.058799015172382</v>
       </c>
       <c r="J7">
-        <v>1.071786461704315</v>
+        <v>1.088722271870148</v>
       </c>
       <c r="K7">
-        <v>1.06943870322324</v>
+        <v>1.081086813244547</v>
       </c>
       <c r="L7">
-        <v>1.078250313721932</v>
+        <v>1.10063057272479</v>
       </c>
       <c r="M7">
-        <v>1.081668011246502</v>
+        <v>1.108163651001455</v>
       </c>
       <c r="N7">
-        <v>1.073308521415561</v>
+        <v>1.090268382374393</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.042761095804505</v>
+        <v>1.082290040047845</v>
       </c>
       <c r="D8">
-        <v>1.051339170374623</v>
+        <v>1.077021591411214</v>
       </c>
       <c r="E8">
-        <v>1.058182604484934</v>
+        <v>1.09613212629011</v>
       </c>
       <c r="F8">
-        <v>1.060859315120541</v>
+        <v>1.103494635395549</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059055062073122</v>
+        <v>1.058064869362905</v>
       </c>
       <c r="J8">
-        <v>1.063197642318509</v>
+        <v>1.087047871837911</v>
       </c>
       <c r="K8">
-        <v>1.061865884412484</v>
+        <v>1.079643194350598</v>
       </c>
       <c r="L8">
-        <v>1.068628172006203</v>
+        <v>1.098705550813404</v>
       </c>
       <c r="M8">
-        <v>1.071273495748103</v>
+        <v>1.106049977789222</v>
       </c>
       <c r="N8">
-        <v>1.064707504921075</v>
+        <v>1.088591604502055</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.022003233451118</v>
+        <v>1.078530899259348</v>
       </c>
       <c r="D9">
-        <v>1.034839500529824</v>
+        <v>1.074034433814867</v>
       </c>
       <c r="E9">
-        <v>1.037792667694336</v>
+        <v>1.092304775387008</v>
       </c>
       <c r="F9">
-        <v>1.039012223798621</v>
+        <v>1.099338806442413</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050515605583747</v>
+        <v>1.056751037628274</v>
       </c>
       <c r="J9">
-        <v>1.046802230288398</v>
+        <v>1.084075941121318</v>
       </c>
       <c r="K9">
-        <v>1.047391534335269</v>
+        <v>1.077077733932063</v>
       </c>
       <c r="L9">
-        <v>1.050300962081479</v>
+        <v>1.095293994276627</v>
       </c>
       <c r="M9">
-        <v>1.051502547437179</v>
+        <v>1.102307725075822</v>
       </c>
       <c r="N9">
-        <v>1.048288809525301</v>
+        <v>1.085615453302959</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.00690598973848</v>
+        <v>1.076011763500548</v>
       </c>
       <c r="D10">
-        <v>1.022859158078359</v>
+        <v>1.07203078110142</v>
       </c>
       <c r="E10">
-        <v>1.022999390719374</v>
+        <v>1.089741956141397</v>
       </c>
       <c r="F10">
-        <v>1.023171062715195</v>
+        <v>1.096557975850309</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044236530431354</v>
+        <v>1.055861306706973</v>
       </c>
       <c r="J10">
-        <v>1.034848262924349</v>
+        <v>1.082079678872972</v>
       </c>
       <c r="K10">
-        <v>1.036827595115464</v>
+        <v>1.075352399600116</v>
       </c>
       <c r="L10">
-        <v>1.036965440274063</v>
+        <v>1.093005924872616</v>
       </c>
       <c r="M10">
-        <v>1.037134190678094</v>
+        <v>1.099800301336341</v>
       </c>
       <c r="N10">
-        <v>1.036317866156457</v>
+        <v>1.083616356133245</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.000008999415691</v>
+        <v>1.074917697759818</v>
       </c>
       <c r="D11">
-        <v>1.017393224676295</v>
+        <v>1.071160163570978</v>
       </c>
       <c r="E11">
-        <v>1.016251105716414</v>
+        <v>1.08862940391355</v>
       </c>
       <c r="F11">
-        <v>1.015946400277973</v>
+        <v>1.095351239582842</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041353132696613</v>
+        <v>1.055472697184122</v>
       </c>
       <c r="J11">
-        <v>1.029381404006531</v>
+        <v>1.081211595575708</v>
       </c>
       <c r="K11">
-        <v>1.031994419091155</v>
+        <v>1.07460163631708</v>
       </c>
       <c r="L11">
-        <v>1.030872922300968</v>
+        <v>1.092011773250213</v>
       </c>
       <c r="M11">
-        <v>1.030573728831519</v>
+        <v>1.098711417991139</v>
       </c>
       <c r="N11">
-        <v>1.030843243671917</v>
+        <v>1.082747040058128</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.997386842238667</v>
+        <v>1.07451080898668</v>
       </c>
       <c r="D12">
-        <v>1.015316450257329</v>
+        <v>1.070836313182338</v>
       </c>
       <c r="E12">
-        <v>1.013687081613999</v>
+        <v>1.088215713230116</v>
       </c>
       <c r="F12">
-        <v>1.013201563536778</v>
+        <v>1.094902596073327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040254797348166</v>
+        <v>1.055327841494909</v>
       </c>
       <c r="J12">
-        <v>1.027302208822366</v>
+        <v>1.080888585517637</v>
       </c>
       <c r="K12">
-        <v>1.030155978801522</v>
+        <v>1.074322206622055</v>
       </c>
       <c r="L12">
-        <v>1.028556674086123</v>
+        <v>1.091641977459794</v>
       </c>
       <c r="M12">
-        <v>1.028080138816499</v>
+        <v>1.098306471164771</v>
       </c>
       <c r="N12">
-        <v>1.028761095792105</v>
+        <v>1.082423571288726</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9979521446859811</v>
+        <v>1.074598111041184</v>
       </c>
       <c r="D13">
-        <v>1.015764112071596</v>
+        <v>1.070905801363434</v>
       </c>
       <c r="E13">
-        <v>1.014239777241639</v>
+        <v>1.088304471379279</v>
       </c>
       <c r="F13">
-        <v>1.013793227312593</v>
+        <v>1.094998850324082</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040491676298634</v>
+        <v>1.055358936645323</v>
       </c>
       <c r="J13">
-        <v>1.027750487911343</v>
+        <v>1.080957898030671</v>
       </c>
       <c r="K13">
-        <v>1.030552361083551</v>
+        <v>1.07438217086225</v>
       </c>
       <c r="L13">
-        <v>1.029056022061657</v>
+        <v>1.091721323807599</v>
       </c>
       <c r="M13">
-        <v>1.028617694208157</v>
+        <v>1.098393355892201</v>
       </c>
       <c r="N13">
-        <v>1.029210011488805</v>
+        <v>1.082492982233479</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9997935212109613</v>
+        <v>1.07488407456934</v>
       </c>
       <c r="D14">
-        <v>1.017222535771362</v>
+        <v>1.071133403526945</v>
       </c>
       <c r="E14">
-        <v>1.016040371578773</v>
+        <v>1.088595217151061</v>
       </c>
       <c r="F14">
-        <v>1.01572080192297</v>
+        <v>1.095314162976786</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041262917652767</v>
+        <v>1.055460733779152</v>
       </c>
       <c r="J14">
-        <v>1.029210558804033</v>
+        <v>1.081184907059506</v>
       </c>
       <c r="K14">
-        <v>1.031843361243461</v>
+        <v>1.074578550107733</v>
       </c>
       <c r="L14">
-        <v>1.03068258059192</v>
+        <v>1.091981216568709</v>
       </c>
       <c r="M14">
-        <v>1.030368802578476</v>
+        <v>1.098677954974597</v>
       </c>
       <c r="N14">
-        <v>1.030672155849637</v>
+        <v>1.082720313641172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.000919858058</v>
+        <v>1.075060198932287</v>
       </c>
       <c r="D15">
-        <v>1.018114806930244</v>
+        <v>1.071273574905575</v>
       </c>
       <c r="E15">
-        <v>1.017141976003143</v>
+        <v>1.088774296609384</v>
       </c>
       <c r="F15">
-        <v>1.016900115714564</v>
+        <v>1.095508383015994</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041734400845918</v>
+        <v>1.055523386765792</v>
       </c>
       <c r="J15">
-        <v>1.030103562279848</v>
+        <v>1.081324699576599</v>
       </c>
       <c r="K15">
-        <v>1.032632926822445</v>
+        <v>1.074699470979491</v>
       </c>
       <c r="L15">
-        <v>1.031677528247767</v>
+        <v>1.092141275318606</v>
       </c>
       <c r="M15">
-        <v>1.031440008628165</v>
+        <v>1.098853240915632</v>
       </c>
       <c r="N15">
-        <v>1.031566427492815</v>
+        <v>1.082860304679675</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.007355628984599</v>
+        <v>1.076084303113965</v>
       </c>
       <c r="D16">
-        <v>1.02321566802116</v>
+        <v>1.072088496571133</v>
       </c>
       <c r="E16">
-        <v>1.02343954772545</v>
+        <v>1.089815731707665</v>
       </c>
       <c r="F16">
-        <v>1.02364232056232</v>
+        <v>1.096638006558172</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044424213562409</v>
+        <v>1.05588702639009</v>
       </c>
       <c r="J16">
-        <v>1.035204556130425</v>
+        <v>1.082137212043187</v>
       </c>
       <c r="K16">
-        <v>1.037142551719261</v>
+        <v>1.07540214689235</v>
       </c>
       <c r="L16">
-        <v>1.037362634787586</v>
+        <v>1.093071830697212</v>
       </c>
       <c r="M16">
-        <v>1.037561970776461</v>
+        <v>1.099872499375354</v>
       </c>
       <c r="N16">
-        <v>1.036674665339752</v>
+        <v>1.083673971007161</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.011292185785622</v>
+        <v>1.076725813247148</v>
       </c>
       <c r="D17">
-        <v>1.026337711399496</v>
+        <v>1.072598859010022</v>
       </c>
       <c r="E17">
-        <v>1.027294205424797</v>
+        <v>1.090468228122492</v>
       </c>
       <c r="F17">
-        <v>1.027769520703447</v>
+        <v>1.097345878337911</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046065708885078</v>
+        <v>1.056114227129728</v>
       </c>
       <c r="J17">
-        <v>1.038323232930278</v>
+        <v>1.082645884306705</v>
       </c>
       <c r="K17">
-        <v>1.039899183834957</v>
+        <v>1.075841924379324</v>
       </c>
       <c r="L17">
-        <v>1.040840014368568</v>
+        <v>1.093654623824943</v>
       </c>
       <c r="M17">
-        <v>1.041307559848003</v>
+        <v>1.100510999844733</v>
       </c>
       <c r="N17">
-        <v>1.039797771018379</v>
+        <v>1.084183365643639</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.013554070781412</v>
+        <v>1.077099681326643</v>
       </c>
       <c r="D18">
-        <v>1.028132239459557</v>
+        <v>1.072896253831976</v>
       </c>
       <c r="E18">
-        <v>1.029509943392217</v>
+        <v>1.090848545656751</v>
       </c>
       <c r="F18">
-        <v>1.030142079118433</v>
+        <v>1.097758516336698</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047007487453936</v>
+        <v>1.056246426608638</v>
       </c>
       <c r="J18">
-        <v>1.040114623087345</v>
+        <v>1.082942229094223</v>
       </c>
       <c r="K18">
-        <v>1.041482421483227</v>
+        <v>1.076098084527285</v>
       </c>
       <c r="L18">
-        <v>1.042838022809294</v>
+        <v>1.093994229753097</v>
       </c>
       <c r="M18">
-        <v>1.043460042502528</v>
+        <v>1.100883123129409</v>
       </c>
       <c r="N18">
-        <v>1.041591705154944</v>
+        <v>1.084480131274747</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.014319680928285</v>
+        <v>1.07722710784689</v>
       </c>
       <c r="D19">
-        <v>1.028739760875512</v>
+        <v>1.072997608735409</v>
       </c>
       <c r="E19">
-        <v>1.03026008484625</v>
+        <v>1.09097817827537</v>
       </c>
       <c r="F19">
-        <v>1.030945340635846</v>
+        <v>1.097899172987669</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047326022645151</v>
+        <v>1.056291448615529</v>
       </c>
       <c r="J19">
-        <v>1.040720881488183</v>
+        <v>1.083043215105183</v>
       </c>
       <c r="K19">
-        <v>1.042018201179012</v>
+        <v>1.076185368656727</v>
       </c>
       <c r="L19">
-        <v>1.043514305328746</v>
+        <v>1.094109971432475</v>
       </c>
       <c r="M19">
-        <v>1.04418867443319</v>
+        <v>1.101009956524195</v>
       </c>
       <c r="N19">
-        <v>1.04219882451225</v>
+        <v>1.084581260697425</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.010873414289306</v>
+        <v>1.076657017851565</v>
       </c>
       <c r="D20">
-        <v>1.026005518770027</v>
+        <v>1.072544132118481</v>
       </c>
       <c r="E20">
-        <v>1.02688405081862</v>
+        <v>1.090398249723877</v>
       </c>
       <c r="F20">
-        <v>1.027330350251644</v>
+        <v>1.097269956528157</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045891231059443</v>
+        <v>1.056089884076053</v>
       </c>
       <c r="J20">
-        <v>1.037991524435245</v>
+        <v>1.082591345400695</v>
       </c>
       <c r="K20">
-        <v>1.039606002699387</v>
+        <v>1.075794777166272</v>
       </c>
       <c r="L20">
-        <v>1.040470093689531</v>
+        <v>1.093592129596683</v>
       </c>
       <c r="M20">
-        <v>1.040909069144758</v>
+        <v>1.100442526249624</v>
       </c>
       <c r="N20">
-        <v>1.039465591459235</v>
+        <v>1.084128749286127</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9992530019364003</v>
+        <v>1.074799879463025</v>
       </c>
       <c r="D21">
-        <v>1.016794390762356</v>
+        <v>1.071066393260863</v>
       </c>
       <c r="E21">
-        <v>1.015511778705131</v>
+        <v>1.088509612001499</v>
       </c>
       <c r="F21">
-        <v>1.015154927341931</v>
+        <v>1.095221322638043</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041036583240442</v>
+        <v>1.055430771150424</v>
       </c>
       <c r="J21">
-        <v>1.028781988066217</v>
+        <v>1.081118074252499</v>
       </c>
       <c r="K21">
-        <v>1.031464423864744</v>
+        <v>1.074520736927603</v>
       </c>
       <c r="L21">
-        <v>1.030205116636515</v>
+        <v>1.091904699182932</v>
       </c>
       <c r="M21">
-        <v>1.029854762825595</v>
+        <v>1.098594161192589</v>
       </c>
       <c r="N21">
-        <v>1.030242976492214</v>
+        <v>1.082653385923914</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9915939609228962</v>
+        <v>1.073629299692934</v>
       </c>
       <c r="D22">
-        <v>1.010731150674827</v>
+        <v>1.070134588944907</v>
       </c>
       <c r="E22">
-        <v>1.00802572721104</v>
+        <v>1.087319602418754</v>
       </c>
       <c r="F22">
-        <v>1.007141249703345</v>
+        <v>1.093930897729765</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037824634194923</v>
+        <v>1.055013414122118</v>
       </c>
       <c r="J22">
-        <v>1.022707589208791</v>
+        <v>1.080188494150607</v>
       </c>
       <c r="K22">
-        <v>1.026092977327976</v>
+        <v>1.073716436351838</v>
       </c>
       <c r="L22">
-        <v>1.023439852060406</v>
+        <v>1.090840708998611</v>
       </c>
       <c r="M22">
-        <v>1.022572552182363</v>
+        <v>1.097429195920721</v>
       </c>
       <c r="N22">
-        <v>1.024159951291667</v>
+        <v>1.081722485711653</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9956899801039765</v>
+        <v>1.074250127887802</v>
       </c>
       <c r="D23">
-        <v>1.013972921246766</v>
+        <v>1.070628814556449</v>
       </c>
       <c r="E23">
-        <v>1.012028305431816</v>
+        <v>1.087950695045402</v>
       </c>
       <c r="F23">
-        <v>1.011425856839841</v>
+        <v>1.094615205696292</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03954346395833</v>
+        <v>1.055234944125639</v>
       </c>
       <c r="J23">
-        <v>1.025956513514447</v>
+        <v>1.080681596418087</v>
       </c>
       <c r="K23">
-        <v>1.028966040581434</v>
+        <v>1.074143123625961</v>
       </c>
       <c r="L23">
-        <v>1.027057804636533</v>
+        <v>1.09140504225758</v>
       </c>
       <c r="M23">
-        <v>1.02646666371955</v>
+        <v>1.098047038341399</v>
       </c>
       <c r="N23">
-        <v>1.027413489442494</v>
+        <v>1.082216288240912</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.011062744459919</v>
+        <v>1.076688104499565</v>
       </c>
       <c r="D24">
-        <v>1.026155703891333</v>
+        <v>1.072568861744167</v>
       </c>
       <c r="E24">
-        <v>1.027069482395278</v>
+        <v>1.09042987079231</v>
       </c>
       <c r="F24">
-        <v>1.02752889944677</v>
+        <v>1.097304263103498</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045970118336407</v>
+        <v>1.056100884651836</v>
       </c>
       <c r="J24">
-        <v>1.038141494409352</v>
+        <v>1.082615990282081</v>
       </c>
       <c r="K24">
-        <v>1.039738554523372</v>
+        <v>1.075816082058198</v>
       </c>
       <c r="L24">
-        <v>1.040637338121892</v>
+        <v>1.093620369060184</v>
       </c>
       <c r="M24">
-        <v>1.041089229192091</v>
+        <v>1.10047346745682</v>
       </c>
       <c r="N24">
-        <v>1.039615774407908</v>
+        <v>1.084153429166072</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.027573152437656</v>
+        <v>1.07950497354232</v>
       </c>
       <c r="D25">
-        <v>1.039264158835565</v>
+        <v>1.074808800037769</v>
       </c>
       <c r="E25">
-        <v>1.043258061974163</v>
+        <v>1.093296169600318</v>
       </c>
       <c r="F25">
-        <v>1.044866460490211</v>
+        <v>1.100414943864302</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052818916055184</v>
+        <v>1.057093113882934</v>
       </c>
       <c r="J25">
-        <v>1.051206914010795</v>
+        <v>1.084846853742616</v>
       </c>
       <c r="K25">
-        <v>1.051282060730699</v>
+        <v>1.077743579297584</v>
       </c>
       <c r="L25">
-        <v>1.055220015497697</v>
+        <v>1.096178330567218</v>
       </c>
       <c r="M25">
-        <v>1.05680603525609</v>
+        <v>1.103277354635422</v>
       </c>
       <c r="N25">
-        <v>1.052699748403809</v>
+        <v>1.086387460708604</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_227/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_227/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.081742303013206</v>
+        <v>1.039856011773734</v>
       </c>
       <c r="D2">
-        <v>1.076586557308225</v>
+        <v>1.049028562984467</v>
       </c>
       <c r="E2">
-        <v>1.095574217330284</v>
+        <v>1.055325403579456</v>
       </c>
       <c r="F2">
-        <v>1.102888618657688</v>
+        <v>1.057796745715023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057874511200575</v>
+        <v>1.057867788316016</v>
       </c>
       <c r="J2">
-        <v>1.086615379532172</v>
+        <v>1.060906647853498</v>
       </c>
       <c r="K2">
-        <v>1.079270098372152</v>
+        <v>1.05984463303446</v>
       </c>
       <c r="L2">
-        <v>1.098208676608113</v>
+        <v>1.066064244000227</v>
       </c>
       <c r="M2">
-        <v>1.105504656545144</v>
+        <v>1.068505587630961</v>
       </c>
       <c r="N2">
-        <v>1.088158498007634</v>
+        <v>1.062413256981143</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.083361597210684</v>
+        <v>1.048335034523721</v>
       </c>
       <c r="D3">
-        <v>1.077872436652297</v>
+        <v>1.055773470017081</v>
       </c>
       <c r="E3">
-        <v>1.09722382004255</v>
+        <v>1.063668077002422</v>
       </c>
       <c r="F3">
-        <v>1.104680696191943</v>
+        <v>1.066740383972887</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058436170805519</v>
+        <v>1.061324836815169</v>
       </c>
       <c r="J3">
-        <v>1.087893416690349</v>
+        <v>1.06758948043741</v>
       </c>
       <c r="K3">
-        <v>1.080372365266487</v>
+        <v>1.065739190813891</v>
       </c>
       <c r="L3">
-        <v>1.099677380441298</v>
+        <v>1.073546313303278</v>
       </c>
       <c r="M3">
-        <v>1.107116854112412</v>
+        <v>1.076585004048351</v>
       </c>
       <c r="N3">
-        <v>1.089438350125169</v>
+        <v>1.069105579953856</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.084407060054298</v>
+        <v>1.053638855410638</v>
       </c>
       <c r="D4">
-        <v>1.07870226403431</v>
+        <v>1.059993818588436</v>
       </c>
       <c r="E4">
-        <v>1.098289236394857</v>
+        <v>1.068891969449435</v>
       </c>
       <c r="F4">
-        <v>1.105838510232278</v>
+        <v>1.072342783345791</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058796994135388</v>
+        <v>1.06347378014119</v>
       </c>
       <c r="J4">
-        <v>1.088717647953479</v>
+        <v>1.071763337459287</v>
       </c>
       <c r="K4">
-        <v>1.081082828493557</v>
+        <v>1.069418325510409</v>
       </c>
       <c r="L4">
-        <v>1.100625253647451</v>
+        <v>1.078224384433693</v>
       </c>
       <c r="M4">
-        <v>1.108157808520277</v>
+        <v>1.081639984951548</v>
       </c>
       <c r="N4">
-        <v>1.090263751891233</v>
+        <v>1.073285364331452</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.084846026360484</v>
+        <v>1.055827586933762</v>
       </c>
       <c r="D5">
-        <v>1.079050599607273</v>
+        <v>1.06173562891017</v>
       </c>
       <c r="E5">
-        <v>1.098736672682675</v>
+        <v>1.071048952616425</v>
       </c>
       <c r="F5">
-        <v>1.106324841039538</v>
+        <v>1.074656608134728</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058948064319411</v>
+        <v>1.064357277671212</v>
       </c>
       <c r="J5">
-        <v>1.089063506825489</v>
+        <v>1.073484175633809</v>
       </c>
       <c r="K5">
-        <v>1.081380850141989</v>
+        <v>1.070934595950223</v>
       </c>
       <c r="L5">
-        <v>1.101023156819277</v>
+        <v>1.080154327478311</v>
       </c>
       <c r="M5">
-        <v>1.108594899235992</v>
+        <v>1.083726257925687</v>
       </c>
       <c r="N5">
-        <v>1.090610101922511</v>
+        <v>1.075008646293564</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.084919699026273</v>
+        <v>1.056192755376248</v>
       </c>
       <c r="D6">
-        <v>1.079109056201136</v>
+        <v>1.062026241544328</v>
       </c>
       <c r="E6">
-        <v>1.098811772267194</v>
+        <v>1.071408895458638</v>
       </c>
       <c r="F6">
-        <v>1.106406474176779</v>
+        <v>1.07504275688021</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058973393441871</v>
+        <v>1.064504484164461</v>
       </c>
       <c r="J6">
-        <v>1.089121540316782</v>
+        <v>1.073771185618309</v>
       </c>
       <c r="K6">
-        <v>1.081430850980446</v>
+        <v>1.071187451194151</v>
       </c>
       <c r="L6">
-        <v>1.10108993263436</v>
+        <v>1.080476285328839</v>
       </c>
       <c r="M6">
-        <v>1.108668258133202</v>
+        <v>1.084074344641085</v>
       </c>
       <c r="N6">
-        <v>1.090668217828018</v>
+        <v>1.075296063865163</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.084412927674502</v>
+        <v>1.053668259005403</v>
       </c>
       <c r="D7">
-        <v>1.078706920558256</v>
+        <v>1.060017217564638</v>
       </c>
       <c r="E7">
-        <v>1.098295216871448</v>
+        <v>1.06892094170314</v>
       </c>
       <c r="F7">
-        <v>1.105845010219442</v>
+        <v>1.072373860048674</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058799015172382</v>
+        <v>1.063485662305196</v>
       </c>
       <c r="J7">
-        <v>1.088722271870148</v>
+        <v>1.071786461704313</v>
       </c>
       <c r="K7">
-        <v>1.081086813244547</v>
+        <v>1.069438703223238</v>
       </c>
       <c r="L7">
-        <v>1.10063057272479</v>
+        <v>1.078250313721929</v>
       </c>
       <c r="M7">
-        <v>1.108163651001455</v>
+        <v>1.081668011246499</v>
       </c>
       <c r="N7">
-        <v>1.090268382374393</v>
+        <v>1.073308521415559</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.082290040047845</v>
+        <v>1.042761095804501</v>
       </c>
       <c r="D8">
-        <v>1.077021591411214</v>
+        <v>1.051339170374619</v>
       </c>
       <c r="E8">
-        <v>1.09613212629011</v>
+        <v>1.058182604484929</v>
       </c>
       <c r="F8">
-        <v>1.103494635395549</v>
+        <v>1.060859315120536</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058064869362905</v>
+        <v>1.05905506207312</v>
       </c>
       <c r="J8">
-        <v>1.087047871837911</v>
+        <v>1.063197642318505</v>
       </c>
       <c r="K8">
-        <v>1.079643194350598</v>
+        <v>1.06186588441248</v>
       </c>
       <c r="L8">
-        <v>1.098705550813404</v>
+        <v>1.068628172006199</v>
       </c>
       <c r="M8">
-        <v>1.106049977789222</v>
+        <v>1.071273495748098</v>
       </c>
       <c r="N8">
-        <v>1.088591604502055</v>
+        <v>1.064707504921071</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.078530899259348</v>
+        <v>1.022003233451119</v>
       </c>
       <c r="D9">
-        <v>1.074034433814867</v>
+        <v>1.034839500529825</v>
       </c>
       <c r="E9">
-        <v>1.092304775387008</v>
+        <v>1.037792667694336</v>
       </c>
       <c r="F9">
-        <v>1.099338806442413</v>
+        <v>1.039012223798621</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056751037628274</v>
+        <v>1.050515605583747</v>
       </c>
       <c r="J9">
-        <v>1.084075941121318</v>
+        <v>1.046802230288398</v>
       </c>
       <c r="K9">
-        <v>1.077077733932063</v>
+        <v>1.047391534335269</v>
       </c>
       <c r="L9">
-        <v>1.095293994276627</v>
+        <v>1.05030096208148</v>
       </c>
       <c r="M9">
-        <v>1.102307725075822</v>
+        <v>1.05150254743718</v>
       </c>
       <c r="N9">
-        <v>1.085615453302959</v>
+        <v>1.048288809525302</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.076011763500548</v>
+        <v>1.006905989738479</v>
       </c>
       <c r="D10">
-        <v>1.07203078110142</v>
+        <v>1.022859158078359</v>
       </c>
       <c r="E10">
-        <v>1.089741956141397</v>
+        <v>1.022999390719373</v>
       </c>
       <c r="F10">
-        <v>1.096557975850309</v>
+        <v>1.023171062715194</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055861306706973</v>
+        <v>1.044236530431353</v>
       </c>
       <c r="J10">
-        <v>1.082079678872972</v>
+        <v>1.034848262924348</v>
       </c>
       <c r="K10">
-        <v>1.075352399600116</v>
+        <v>1.036827595115463</v>
       </c>
       <c r="L10">
-        <v>1.093005924872616</v>
+        <v>1.036965440274062</v>
       </c>
       <c r="M10">
-        <v>1.099800301336341</v>
+        <v>1.037134190678093</v>
       </c>
       <c r="N10">
-        <v>1.083616356133245</v>
+        <v>1.036317866156456</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.074917697759818</v>
+        <v>1.000008999415693</v>
       </c>
       <c r="D11">
-        <v>1.071160163570978</v>
+        <v>1.017393224676297</v>
       </c>
       <c r="E11">
-        <v>1.08862940391355</v>
+        <v>1.016251105716416</v>
       </c>
       <c r="F11">
-        <v>1.095351239582842</v>
+        <v>1.015946400277976</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055472697184122</v>
+        <v>1.041353132696614</v>
       </c>
       <c r="J11">
-        <v>1.081211595575708</v>
+        <v>1.029381404006532</v>
       </c>
       <c r="K11">
-        <v>1.07460163631708</v>
+        <v>1.031994419091157</v>
       </c>
       <c r="L11">
-        <v>1.092011773250213</v>
+        <v>1.030872922300971</v>
       </c>
       <c r="M11">
-        <v>1.098711417991139</v>
+        <v>1.030573728831521</v>
       </c>
       <c r="N11">
-        <v>1.082747040058128</v>
+        <v>1.030843243671919</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.07451080898668</v>
+        <v>0.9973868422386675</v>
       </c>
       <c r="D12">
-        <v>1.070836313182338</v>
+        <v>1.015316450257329</v>
       </c>
       <c r="E12">
-        <v>1.088215713230116</v>
+        <v>1.013687081613999</v>
       </c>
       <c r="F12">
-        <v>1.094902596073327</v>
+        <v>1.013201563536778</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055327841494909</v>
+        <v>1.040254797348166</v>
       </c>
       <c r="J12">
-        <v>1.080888585517637</v>
+        <v>1.027302208822367</v>
       </c>
       <c r="K12">
-        <v>1.074322206622055</v>
+        <v>1.030155978801522</v>
       </c>
       <c r="L12">
-        <v>1.091641977459794</v>
+        <v>1.028556674086123</v>
       </c>
       <c r="M12">
-        <v>1.098306471164771</v>
+        <v>1.028080138816499</v>
       </c>
       <c r="N12">
-        <v>1.082423571288726</v>
+        <v>1.028761095792105</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.074598111041184</v>
+        <v>0.9979521446859826</v>
       </c>
       <c r="D13">
-        <v>1.070905801363434</v>
+        <v>1.015764112071597</v>
       </c>
       <c r="E13">
-        <v>1.088304471379279</v>
+        <v>1.01423977724164</v>
       </c>
       <c r="F13">
-        <v>1.094998850324082</v>
+        <v>1.013793227312595</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055358936645323</v>
+        <v>1.040491676298634</v>
       </c>
       <c r="J13">
-        <v>1.080957898030671</v>
+        <v>1.027750487911344</v>
       </c>
       <c r="K13">
-        <v>1.07438217086225</v>
+        <v>1.030552361083552</v>
       </c>
       <c r="L13">
-        <v>1.091721323807599</v>
+        <v>1.029056022061659</v>
       </c>
       <c r="M13">
-        <v>1.098393355892201</v>
+        <v>1.028617694208159</v>
       </c>
       <c r="N13">
-        <v>1.082492982233479</v>
+        <v>1.029210011488807</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.07488407456934</v>
+        <v>0.9997935212109645</v>
       </c>
       <c r="D14">
-        <v>1.071133403526945</v>
+        <v>1.017222535771365</v>
       </c>
       <c r="E14">
-        <v>1.088595217151061</v>
+        <v>1.016040371578776</v>
       </c>
       <c r="F14">
-        <v>1.095314162976786</v>
+        <v>1.015720801922973</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055460733779152</v>
+        <v>1.041262917652768</v>
       </c>
       <c r="J14">
-        <v>1.081184907059506</v>
+        <v>1.029210558804036</v>
       </c>
       <c r="K14">
-        <v>1.074578550107733</v>
+        <v>1.031843361243464</v>
       </c>
       <c r="L14">
-        <v>1.091981216568709</v>
+        <v>1.030682580591923</v>
       </c>
       <c r="M14">
-        <v>1.098677954974597</v>
+        <v>1.030368802578479</v>
       </c>
       <c r="N14">
-        <v>1.082720313641172</v>
+        <v>1.030672155849639</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.075060198932287</v>
+        <v>1.000919858058002</v>
       </c>
       <c r="D15">
-        <v>1.071273574905575</v>
+        <v>1.018114806930247</v>
       </c>
       <c r="E15">
-        <v>1.088774296609384</v>
+        <v>1.017141976003145</v>
       </c>
       <c r="F15">
-        <v>1.095508383015994</v>
+        <v>1.016900115714566</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055523386765792</v>
+        <v>1.04173440084592</v>
       </c>
       <c r="J15">
-        <v>1.081324699576599</v>
+        <v>1.03010356227985</v>
       </c>
       <c r="K15">
-        <v>1.074699470979491</v>
+        <v>1.032632926822448</v>
       </c>
       <c r="L15">
-        <v>1.092141275318606</v>
+        <v>1.031677528247769</v>
       </c>
       <c r="M15">
-        <v>1.098853240915632</v>
+        <v>1.031440008628167</v>
       </c>
       <c r="N15">
-        <v>1.082860304679675</v>
+        <v>1.031566427492817</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.076084303113965</v>
+        <v>1.007355628984598</v>
       </c>
       <c r="D16">
-        <v>1.072088496571133</v>
+        <v>1.023215668021159</v>
       </c>
       <c r="E16">
-        <v>1.089815731707665</v>
+        <v>1.023439547725449</v>
       </c>
       <c r="F16">
-        <v>1.096638006558172</v>
+        <v>1.023642320562318</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05588702639009</v>
+        <v>1.044424213562409</v>
       </c>
       <c r="J16">
-        <v>1.082137212043187</v>
+        <v>1.035204556130423</v>
       </c>
       <c r="K16">
-        <v>1.07540214689235</v>
+        <v>1.03714255171926</v>
       </c>
       <c r="L16">
-        <v>1.093071830697212</v>
+        <v>1.037362634787585</v>
       </c>
       <c r="M16">
-        <v>1.099872499375354</v>
+        <v>1.03756197077646</v>
       </c>
       <c r="N16">
-        <v>1.083673971007161</v>
+        <v>1.036674665339751</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.076725813247148</v>
+        <v>1.011292185785622</v>
       </c>
       <c r="D17">
-        <v>1.072598859010022</v>
+        <v>1.026337711399495</v>
       </c>
       <c r="E17">
-        <v>1.090468228122492</v>
+        <v>1.027294205424798</v>
       </c>
       <c r="F17">
-        <v>1.097345878337911</v>
+        <v>1.027769520703448</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056114227129728</v>
+        <v>1.046065708885078</v>
       </c>
       <c r="J17">
-        <v>1.082645884306705</v>
+        <v>1.038323232930279</v>
       </c>
       <c r="K17">
-        <v>1.075841924379324</v>
+        <v>1.039899183834957</v>
       </c>
       <c r="L17">
-        <v>1.093654623824943</v>
+        <v>1.040840014368569</v>
       </c>
       <c r="M17">
-        <v>1.100510999844733</v>
+        <v>1.041307559848004</v>
       </c>
       <c r="N17">
-        <v>1.084183365643639</v>
+        <v>1.039797771018379</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.077099681326643</v>
+        <v>1.013554070781412</v>
       </c>
       <c r="D18">
-        <v>1.072896253831976</v>
+        <v>1.028132239459557</v>
       </c>
       <c r="E18">
-        <v>1.090848545656751</v>
+        <v>1.029509943392217</v>
       </c>
       <c r="F18">
-        <v>1.097758516336698</v>
+        <v>1.030142079118433</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056246426608638</v>
+        <v>1.047007487453937</v>
       </c>
       <c r="J18">
-        <v>1.082942229094223</v>
+        <v>1.040114623087346</v>
       </c>
       <c r="K18">
-        <v>1.076098084527285</v>
+        <v>1.041482421483227</v>
       </c>
       <c r="L18">
-        <v>1.093994229753097</v>
+        <v>1.042838022809295</v>
       </c>
       <c r="M18">
-        <v>1.100883123129409</v>
+        <v>1.043460042502529</v>
       </c>
       <c r="N18">
-        <v>1.084480131274747</v>
+        <v>1.041591705154945</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.07722710784689</v>
+        <v>1.014319680928286</v>
       </c>
       <c r="D19">
-        <v>1.072997608735409</v>
+        <v>1.028739760875514</v>
       </c>
       <c r="E19">
-        <v>1.09097817827537</v>
+        <v>1.030260084846252</v>
       </c>
       <c r="F19">
-        <v>1.097899172987669</v>
+        <v>1.030945340635847</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056291448615529</v>
+        <v>1.047326022645153</v>
       </c>
       <c r="J19">
-        <v>1.083043215105183</v>
+        <v>1.040720881488185</v>
       </c>
       <c r="K19">
-        <v>1.076185368656727</v>
+        <v>1.042018201179013</v>
       </c>
       <c r="L19">
-        <v>1.094109971432475</v>
+        <v>1.043514305328748</v>
       </c>
       <c r="M19">
-        <v>1.101009956524195</v>
+        <v>1.044188674433192</v>
       </c>
       <c r="N19">
-        <v>1.084581260697425</v>
+        <v>1.042198824512251</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.076657017851565</v>
+        <v>1.010873414289308</v>
       </c>
       <c r="D20">
-        <v>1.072544132118481</v>
+        <v>1.026005518770028</v>
       </c>
       <c r="E20">
-        <v>1.090398249723877</v>
+        <v>1.026884050818621</v>
       </c>
       <c r="F20">
-        <v>1.097269956528157</v>
+        <v>1.027330350251646</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056089884076053</v>
+        <v>1.045891231059443</v>
       </c>
       <c r="J20">
-        <v>1.082591345400695</v>
+        <v>1.037991524435246</v>
       </c>
       <c r="K20">
-        <v>1.075794777166272</v>
+        <v>1.039606002699389</v>
       </c>
       <c r="L20">
-        <v>1.093592129596683</v>
+        <v>1.040470093689533</v>
       </c>
       <c r="M20">
-        <v>1.100442526249624</v>
+        <v>1.040909069144759</v>
       </c>
       <c r="N20">
-        <v>1.084128749286127</v>
+        <v>1.039465591459236</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.074799879463025</v>
+        <v>0.9992530019363999</v>
       </c>
       <c r="D21">
-        <v>1.071066393260863</v>
+        <v>1.016794390762356</v>
       </c>
       <c r="E21">
-        <v>1.088509612001499</v>
+        <v>1.01551177870513</v>
       </c>
       <c r="F21">
-        <v>1.095221322638043</v>
+        <v>1.01515492734193</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055430771150424</v>
+        <v>1.041036583240442</v>
       </c>
       <c r="J21">
-        <v>1.081118074252499</v>
+        <v>1.028781988066216</v>
       </c>
       <c r="K21">
-        <v>1.074520736927603</v>
+        <v>1.031464423864744</v>
       </c>
       <c r="L21">
-        <v>1.091904699182932</v>
+        <v>1.030205116636514</v>
       </c>
       <c r="M21">
-        <v>1.098594161192589</v>
+        <v>1.029854762825595</v>
       </c>
       <c r="N21">
-        <v>1.082653385923914</v>
+        <v>1.030242976492213</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.073629299692934</v>
+        <v>0.9915939609228976</v>
       </c>
       <c r="D22">
-        <v>1.070134588944907</v>
+        <v>1.010731150674829</v>
       </c>
       <c r="E22">
-        <v>1.087319602418754</v>
+        <v>1.008025727211042</v>
       </c>
       <c r="F22">
-        <v>1.093930897729765</v>
+        <v>1.007141249703347</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055013414122118</v>
+        <v>1.037824634194924</v>
       </c>
       <c r="J22">
-        <v>1.080188494150607</v>
+        <v>1.022707589208792</v>
       </c>
       <c r="K22">
-        <v>1.073716436351838</v>
+        <v>1.026092977327978</v>
       </c>
       <c r="L22">
-        <v>1.090840708998611</v>
+        <v>1.023439852060408</v>
       </c>
       <c r="M22">
-        <v>1.097429195920721</v>
+        <v>1.022572552182365</v>
       </c>
       <c r="N22">
-        <v>1.081722485711653</v>
+        <v>1.024159951291669</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.074250127887802</v>
+        <v>0.995689980103975</v>
       </c>
       <c r="D23">
-        <v>1.070628814556449</v>
+        <v>1.013972921246765</v>
       </c>
       <c r="E23">
-        <v>1.087950695045402</v>
+        <v>1.012028305431814</v>
       </c>
       <c r="F23">
-        <v>1.094615205696292</v>
+        <v>1.01142585683984</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055234944125639</v>
+        <v>1.039543463958329</v>
       </c>
       <c r="J23">
-        <v>1.080681596418087</v>
+        <v>1.025956513514445</v>
       </c>
       <c r="K23">
-        <v>1.074143123625961</v>
+        <v>1.028966040581433</v>
       </c>
       <c r="L23">
-        <v>1.09140504225758</v>
+        <v>1.027057804636532</v>
       </c>
       <c r="M23">
-        <v>1.098047038341399</v>
+        <v>1.026466663719549</v>
       </c>
       <c r="N23">
-        <v>1.082216288240912</v>
+        <v>1.027413489442493</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.076688104499565</v>
+        <v>1.011062744459921</v>
       </c>
       <c r="D24">
-        <v>1.072568861744167</v>
+        <v>1.026155703891334</v>
       </c>
       <c r="E24">
-        <v>1.09042987079231</v>
+        <v>1.02706948239528</v>
       </c>
       <c r="F24">
-        <v>1.097304263103498</v>
+        <v>1.027528899446772</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056100884651836</v>
+        <v>1.045970118336408</v>
       </c>
       <c r="J24">
-        <v>1.082615990282081</v>
+        <v>1.038141494409354</v>
       </c>
       <c r="K24">
-        <v>1.075816082058198</v>
+        <v>1.039738554523374</v>
       </c>
       <c r="L24">
-        <v>1.093620369060184</v>
+        <v>1.040637338121894</v>
       </c>
       <c r="M24">
-        <v>1.10047346745682</v>
+        <v>1.041089229192093</v>
       </c>
       <c r="N24">
-        <v>1.084153429166072</v>
+        <v>1.039615774407909</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.07950497354232</v>
+        <v>1.027573152437655</v>
       </c>
       <c r="D25">
-        <v>1.074808800037769</v>
+        <v>1.039264158835565</v>
       </c>
       <c r="E25">
-        <v>1.093296169600318</v>
+        <v>1.043258061974163</v>
       </c>
       <c r="F25">
-        <v>1.100414943864302</v>
+        <v>1.044866460490212</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057093113882934</v>
+        <v>1.052818916055184</v>
       </c>
       <c r="J25">
-        <v>1.084846853742616</v>
+        <v>1.051206914010795</v>
       </c>
       <c r="K25">
-        <v>1.077743579297584</v>
+        <v>1.051282060730699</v>
       </c>
       <c r="L25">
-        <v>1.096178330567218</v>
+        <v>1.055220015497697</v>
       </c>
       <c r="M25">
-        <v>1.103277354635422</v>
+        <v>1.05680603525609</v>
       </c>
       <c r="N25">
-        <v>1.086387460708604</v>
+        <v>1.052699748403809</v>
       </c>
     </row>
   </sheetData>
